--- a/anystruct/excel_input_example.xlsx
+++ b/anystruct/excel_input_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\ANYstructure\anystruct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A1A1FE-4254-4E0E-BA60-0BD973BB22E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1076C-0132-48CC-8544-DA35657ECB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flate_plate" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>Flat plate, unstiffened</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Orthogonally Stiffened panel (Stress input)</t>
-  </si>
-  <si>
-    <t>Calculation domaint</t>
   </si>
   <si>
     <t>line end 1, x</t>
@@ -229,6 +226,111 @@
   </si>
   <si>
     <t>girder type</t>
+  </si>
+  <si>
+    <t>Calculation domain</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>distance between rings</t>
+  </si>
+  <si>
+    <t>length of shell</t>
+  </si>
+  <si>
+    <t>total cyl length</t>
+  </si>
+  <si>
+    <t>buckling factor</t>
+  </si>
+  <si>
+    <t>material factor</t>
+  </si>
+  <si>
+    <t>long stf, hw</t>
+  </si>
+  <si>
+    <t>long stf, tw</t>
+  </si>
+  <si>
+    <t>long stf, bf</t>
+  </si>
+  <si>
+    <t>long stf, tf</t>
+  </si>
+  <si>
+    <t>long stf, spacing</t>
+  </si>
+  <si>
+    <t>long stf, type</t>
+  </si>
+  <si>
+    <t>ring stf, hw</t>
+  </si>
+  <si>
+    <t>ring stf, tw</t>
+  </si>
+  <si>
+    <t>ring stf, bf</t>
+  </si>
+  <si>
+    <t>ring stf, tf</t>
+  </si>
+  <si>
+    <t>girder, spacing</t>
+  </si>
+  <si>
+    <t>girder, type</t>
+  </si>
+  <si>
+    <t>stress, axial</t>
+  </si>
+  <si>
+    <t>stress, bending0</t>
+  </si>
+  <si>
+    <t>stress, torsional</t>
+  </si>
+  <si>
+    <t>stress, shear</t>
+  </si>
+  <si>
+    <t>pressure, lateral</t>
+  </si>
+  <si>
+    <t>stress, additional hoop</t>
+  </si>
+  <si>
+    <t>force, axial</t>
+  </si>
+  <si>
+    <t>force, bending</t>
+  </si>
+  <si>
+    <t>force, torsional</t>
+  </si>
+  <si>
+    <t>force, shear</t>
+  </si>
+  <si>
+    <t>limit state</t>
+  </si>
+  <si>
+    <t>material yield</t>
+  </si>
+  <si>
+    <t>ULS</t>
+  </si>
+  <si>
+    <t>FLS</t>
+  </si>
+  <si>
+    <t>line end 2, y</t>
+  </si>
+  <si>
+    <t>ring stf, type</t>
   </si>
 </sst>
 </file>
@@ -1087,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,76 +1209,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1214,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2">
         <v>50</v>
@@ -1270,7 +1372,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3">
         <v>40</v>
@@ -1326,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>55</v>
@@ -1362,7 +1464,7 @@
         <v>20</v>
       </c>
       <c r="X4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1400,7 +1502,7 @@
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5">
         <v>98</v>
@@ -1436,7 +1538,7 @@
         <v>15</v>
       </c>
       <c r="X5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1474,7 +1576,7 @@
         <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6">
         <v>20</v>
@@ -1510,19 +1612,19 @@
         <v>20</v>
       </c>
       <c r="X6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5E31CA4-836F-49C4-B916-56D2729DAF1D}">
           <x14:formula1>
             <xm:f>Domains!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A8</xm:sqref>
+          <xm:sqref>A7:A8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE60D363-82B2-4FF2-913A-12E7BE0C49EB}">
           <x14:formula1>
@@ -1536,6 +1638,12 @@
           </x14:formula1>
           <xm:sqref>X2:X6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63150F24-5DF3-4483-82C2-328183416ED4}">
+          <x14:formula1>
+            <xm:f>Domains!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A6</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1544,22 +1652,364 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BFB5EF-D0C7-4832-9805-DD5473AFBCE9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="30" max="35" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>6000</v>
+      </c>
+      <c r="C2">
+        <v>6000</v>
+      </c>
+      <c r="D2">
+        <v>6000</v>
+      </c>
+      <c r="E2">
+        <v>15000</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>5000</v>
+      </c>
+      <c r="H2">
+        <v>3300</v>
+      </c>
+      <c r="I2">
+        <v>20000</v>
+      </c>
+      <c r="J2">
+        <v>20000</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M2">
+        <v>300</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>150</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <v>700</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2">
+        <v>800</v>
+      </c>
+      <c r="Y2">
+        <v>15</v>
+      </c>
+      <c r="Z2">
+        <v>200</v>
+      </c>
+      <c r="AA2">
+        <v>20</v>
+      </c>
+      <c r="AB2">
+        <v>3300</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2">
+        <v>-100</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>-50</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>6000</v>
+      </c>
+      <c r="C3">
+        <v>15000</v>
+      </c>
+      <c r="D3">
+        <v>15000</v>
+      </c>
+      <c r="E3">
+        <v>15000</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
+      </c>
+      <c r="H3">
+        <v>4000</v>
+      </c>
+      <c r="I3">
+        <v>20000</v>
+      </c>
+      <c r="J3">
+        <v>20000</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M3">
+        <v>300</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>150</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>800</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3">
+        <v>800</v>
+      </c>
+      <c r="Y3">
+        <v>15</v>
+      </c>
+      <c r="Z3">
+        <v>200</v>
+      </c>
+      <c r="AA3">
+        <v>20</v>
+      </c>
+      <c r="AB3">
+        <v>3300</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3">
+        <v>-200</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>-20</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AC53ACE-1D77-4189-AC71-49D2AC0A9357}">
+          <x14:formula1>
+            <xm:f>Domains!$A$4:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{446053ED-2064-4DC0-810A-F8EF03B51702}">
+          <x14:formula1>
+            <xm:f>Domains!$A$20:$A$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>AN2:AN3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1621,27 +2071,37 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/anystruct/excel_input_example.xlsx
+++ b/anystruct/excel_input_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\ANYstructure\anystruct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1076C-0132-48CC-8544-DA35657ECB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BD4EDB-9E04-45A4-8504-ABA7FBFE64E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
   <si>
     <t>Flat plate, unstiffened</t>
   </si>
@@ -331,6 +331,138 @@
   </si>
   <si>
     <t>ring stf, type</t>
+  </si>
+  <si>
+    <t>End cap pressure</t>
+  </si>
+  <si>
+    <t>Fabrication method stf</t>
+  </si>
+  <si>
+    <t>Fabrication method girder</t>
+  </si>
+  <si>
+    <t>included in axial force</t>
+  </si>
+  <si>
+    <t>not included in axial force</t>
+  </si>
+  <si>
+    <t>Fabricated</t>
+  </si>
+  <si>
+    <t>Cold formed</t>
+  </si>
+  <si>
+    <t>overpressure side</t>
+  </si>
+  <si>
+    <t>both sides</t>
+  </si>
+  <si>
+    <t>plate side</t>
+  </si>
+  <si>
+    <t>stiffener side</t>
+  </si>
+  <si>
+    <t>BOTTOM</t>
+  </si>
+  <si>
+    <t>BBS</t>
+  </si>
+  <si>
+    <t>BBT</t>
+  </si>
+  <si>
+    <t>HOPPER</t>
+  </si>
+  <si>
+    <t>SIDE_SHELL</t>
+  </si>
+  <si>
+    <t>INNER_SIDE</t>
+  </si>
+  <si>
+    <t>FRAME</t>
+  </si>
+  <si>
+    <t>FRAME_WT</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>GENERAL_INTERNAL_WT</t>
+  </si>
+  <si>
+    <t>GENERAL_INTERNAL_NONWT</t>
+  </si>
+  <si>
+    <t>INTERNAL_1_MPA</t>
+  </si>
+  <si>
+    <t>INTERNAL_LOW_STRESS_WT</t>
+  </si>
+  <si>
+    <t>structure type</t>
+  </si>
+  <si>
+    <t>end support stf</t>
+  </si>
+  <si>
+    <t>end support gider</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Sniped</t>
+  </si>
+  <si>
+    <t>fab. method stf</t>
+  </si>
+  <si>
+    <t>fab. method gird</t>
+  </si>
+  <si>
+    <t>welded</t>
+  </si>
+  <si>
+    <t>rolled</t>
+  </si>
+  <si>
+    <t>not allowed</t>
+  </si>
+  <si>
+    <t>allowed</t>
+  </si>
+  <si>
+    <t>Buckling length factor, stf</t>
+  </si>
+  <si>
+    <t>Buckling length factor, gird</t>
+  </si>
+  <si>
+    <t>Dist. between lat. Support, stf</t>
+  </si>
+  <si>
+    <t>Dist. between lat. Support, gird</t>
+  </si>
+  <si>
+    <t>Tension field action, stf</t>
+  </si>
+  <si>
+    <t>Tension field action, girder</t>
+  </si>
+  <si>
+    <t>Stf. Pl effective against sigma y</t>
+  </si>
+  <si>
+    <t>All sigma y to girder</t>
   </si>
 </sst>
 </file>
@@ -826,12 +958,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1187,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1205,9 +1338,10 @@
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
     <col min="11" max="12" width="13.42578125" customWidth="1"/>
     <col min="24" max="24" width="11.140625" customWidth="1"/>
+    <col min="31" max="35" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1280,8 +1414,44 @@
       <c r="X1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1336,8 +1506,41 @@
       <c r="R2" s="1">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1392,8 +1595,41 @@
       <c r="R3" s="1">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1466,8 +1702,41 @@
       <c r="X4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1540,8 +1809,41 @@
       <c r="X5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1613,13 +1915,46 @@
       </c>
       <c r="X6" t="s">
         <v>34</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5E31CA4-836F-49C4-B916-56D2729DAF1D}">
           <x14:formula1>
             <xm:f>Domains!$A$1:$A$11</xm:f>
@@ -1644,6 +1979,42 @@
           </x14:formula1>
           <xm:sqref>A2:A6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6D5CC61-6983-47DD-90DE-F18203E1F2F8}">
+          <x14:formula1>
+            <xm:f>Domains!$A$30:$A$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y2:Y6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72262595-797F-4368-BA82-676D63708697}">
+          <x14:formula1>
+            <xm:f>Domains!$A$35:$A$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2:Z6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{48BBD364-B8EE-49E9-B74F-5CBA717AF6D4}">
+          <x14:formula1>
+            <xm:f>Domains!$A$51:$A$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA2:AB6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{968A3A6F-A8C1-4E7D-A978-F822A0C1EB9C}">
+          <x14:formula1>
+            <xm:f>Domains!$A$54:$A$55</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC2:AD6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9681B55D-C2AB-4CFB-A9CF-3E111DAEF1D3}">
+          <x14:formula1>
+            <xm:f>Domains!$A$57:$A$58</xm:f>
+          </x14:formula1>
+          <xm:sqref>AI2:AI6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45AD0BC0-2B1C-4EBD-B375-5E7CC2BA8736}">
+          <x14:formula1>
+            <xm:f>Domains!$A$60:$A$61</xm:f>
+          </x14:formula1>
+          <xm:sqref>AJ2:AJ6</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1652,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BFB5EF-D0C7-4832-9805-DD5473AFBCE9}">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1666,132 +2037,141 @@
     <col min="30" max="35" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" t="s">
+    <row r="1" spans="1:44" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="AP1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1846,24 +2226,6 @@
       <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="X2">
-        <v>800</v>
-      </c>
-      <c r="Y2">
-        <v>15</v>
-      </c>
-      <c r="Z2">
-        <v>200</v>
-      </c>
-      <c r="AA2">
-        <v>20</v>
-      </c>
-      <c r="AB2">
-        <v>3300</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
       <c r="AD2">
         <v>-100</v>
       </c>
@@ -1885,8 +2247,20 @@
       <c r="AN2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:41">
+      <c r="AO2">
+        <v>355</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1980,12 +2354,25 @@
       <c r="AN3" t="s">
         <v>70</v>
       </c>
+      <c r="AO3">
+        <v>355</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AC53ACE-1D77-4189-AC71-49D2AC0A9357}">
           <x14:formula1>
             <xm:f>Domains!$A$4:$A$11</xm:f>
@@ -1998,6 +2385,18 @@
           </x14:formula1>
           <xm:sqref>AN2:AN3</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B41331F9-2A2C-4DE2-A2F4-2147BFE53E60}">
+          <x14:formula1>
+            <xm:f>Domains!$A$24:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>AP2:AP3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D1D4BC0C-900C-40A5-95BA-D9F8059C32CF}">
+          <x14:formula1>
+            <xm:f>Domains!$A$27:$A$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>AQ2:AR3</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2006,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2104,7 +2503,153 @@
         <v>71</v>
       </c>
     </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>